--- a/Results/Label-Unlabeled Time.xlsx
+++ b/Results/Label-Unlabeled Time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
   <si>
     <t>P1</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>Redo</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,7 @@
   <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +464,15 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
